--- a/4. Honeywell/1. 资料/M6数据转换/源文件/计时器组态数据库.xlsx
+++ b/4. Honeywell/1. 资料/M6数据转换/源文件/计时器组态数据库.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="45" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="45" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOF" sheetId="3" r:id="rId1"/>
     <sheet name="TON" sheetId="2" r:id="rId2"/>
     <sheet name="TP" sheetId="1" r:id="rId3"/>
+    <sheet name="QOR2" sheetId="4" r:id="rId4"/>
+    <sheet name="QOR3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>SN</t>
   </si>
@@ -86,6 +88,57 @@
   </si>
   <si>
     <t>设定时间</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>HISCP</t>
+  </si>
+  <si>
+    <t>是否上网</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>输入1</t>
+  </si>
+  <si>
+    <t>输入2</t>
+  </si>
+  <si>
+    <t>输入3</t>
+  </si>
+  <si>
+    <t>输入4</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>采集周期</t>
   </si>
 </sst>
 </file>
@@ -648,7 +701,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J40"/>
     </sheetView>
   </sheetViews>
@@ -722,4 +775,193 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4. Honeywell/1. 资料/M6数据转换/源文件/计时器组态数据库.xlsx
+++ b/4. Honeywell/1. 资料/M6数据转换/源文件/计时器组态数据库.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="45" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="45" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOF" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="TP" sheetId="1" r:id="rId3"/>
     <sheet name="QOR2" sheetId="4" r:id="rId4"/>
     <sheet name="QOR3" sheetId="5" r:id="rId5"/>
+    <sheet name="MINPULSE" sheetId="7" r:id="rId6"/>
+    <sheet name="MAXPULSE" sheetId="8" r:id="rId7"/>
+    <sheet name="FILPFLOP" sheetId="9" r:id="rId8"/>
+    <sheet name="CHDETECT" sheetId="6" r:id="rId9"/>
+    <sheet name="DISCREP3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="61">
   <si>
     <t>SN</t>
   </si>
@@ -139,6 +144,78 @@
   </si>
   <si>
     <t>采集周期</t>
+  </si>
+  <si>
+    <t>LASTS1</t>
+  </si>
+  <si>
+    <t>LASTS2</t>
+  </si>
+  <si>
+    <t>LASTS3</t>
+  </si>
+  <si>
+    <t>上周期输入1</t>
+  </si>
+  <si>
+    <t>上周期输入2</t>
+  </si>
+  <si>
+    <t>上周期输入3</t>
+  </si>
+  <si>
+    <t>PDELAY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>PRES1</t>
+  </si>
+  <si>
+    <t>上升沿标记</t>
+  </si>
+  <si>
+    <t>预置扫描周期数，由RT转换而来，最大为65000</t>
+  </si>
+  <si>
+    <t>任务周期</t>
+  </si>
+  <si>
+    <t>当前执行的周期计数</t>
+  </si>
+  <si>
+    <t>上升沿持续周期数</t>
+  </si>
+  <si>
+    <t>上一拍输入</t>
+  </si>
+  <si>
+    <t>S12DELAY</t>
+  </si>
+  <si>
+    <t>S23DELAY</t>
+  </si>
+  <si>
+    <t>S13DELAY</t>
+  </si>
+  <si>
+    <t>12不相等持续时间</t>
+  </si>
+  <si>
+    <t>23不相等持续时间</t>
+  </si>
+  <si>
+    <t>13不相等持续时间</t>
   </si>
 </sst>
 </file>
@@ -615,6 +692,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
@@ -878,7 +1069,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -964,4 +1155,439 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="11" max="13" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4. Honeywell/1. 资料/M6数据转换/源文件/计时器组态数据库.xlsx
+++ b/4. Honeywell/1. 资料/M6数据转换/源文件/计时器组态数据库.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="45" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="45" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TOF" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="QOR3" sheetId="5" r:id="rId5"/>
     <sheet name="MINPULSE" sheetId="7" r:id="rId6"/>
     <sheet name="MAXPULSE" sheetId="8" r:id="rId7"/>
-    <sheet name="FILPFLOP" sheetId="9" r:id="rId8"/>
+    <sheet name="FLIPFLOP" sheetId="9" r:id="rId8"/>
     <sheet name="CHDETECT" sheetId="6" r:id="rId9"/>
     <sheet name="DISCREP3" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -694,14 +694,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1159,14 +1162,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
@@ -1277,6 +1283,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1285,6 +1292,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
@@ -1396,14 +1405,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1485,6 +1497,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1493,6 +1506,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="11" max="13" width="12.125" bestFit="1" customWidth="1"/>
